--- a/Adicionales/03.Power_Profile/PowerProfile.xlsx
+++ b/Adicionales/03.Power_Profile/PowerProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ELO308-faf_PEPS\Adicionales\03. Power_Profile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ELO308_Pruebas_nRF9160\Adicionales\03.Power_Profile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62724F0-92CA-4BCE-ACC3-373055117C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C3470-867B-4359-9B88-217CE90698DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A8086B93-EBFD-48E4-BBA6-B9735B1404C3}"/>
   </bookViews>
@@ -592,6 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,7 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="B1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,26 +1142,26 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1228,26 +1228,26 @@
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -1276,13 +1276,13 @@
       <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="23">
         <v>0</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="23">
         <v>0.04</v>
       </c>
       <c r="F11" s="2">
@@ -1330,14 +1330,14 @@
         <v>23</v>
       </c>
       <c r="C13" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <f>15-C13</f>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2">
         <f>C13+D13</f>
@@ -1345,11 +1345,11 @@
       </c>
       <c r="G13" s="4">
         <f>C13/F13</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="9">
         <f>E13*G13</f>
-        <v>6.6666666666666661</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1390,31 +1390,31 @@
       </c>
       <c r="H15" s="16">
         <f>SUM(H10:H14)</f>
-        <v>20.67</v>
+        <v>22.403333333333336</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2">
         <f>C21+D21</f>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="H21" s="9">
         <f>E21*G21</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1502,14 +1502,14 @@
       </c>
       <c r="H22" s="16">
         <f>SUM(H20:H21)</f>
-        <v>42.7</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C29" s="2">
         <f>C28*H22</f>
-        <v>5.3375000000000004</v>
+        <v>5.8375000000000004</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C30" s="2">
         <f>C25-C27-C29</f>
-        <v>181.2225</v>
+        <v>180.7225</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -1591,19 +1591,19 @@
       </c>
       <c r="C31" s="22">
         <f>C30/H15</f>
-        <v>8.7674165457184312</v>
+        <v>8.0667683380449322</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="str">
+      <c r="B33" s="32" t="str">
         <f xml:space="preserve"> "Luego de pasar " &amp; C26/(24*7) &amp; " semana(s) sin ser recargado, el dispositivo podria enviar su ubicacion por " &amp; ROUND(C31,2) &amp; " horas."</f>
-        <v>Luego de pasar 2 semana(s) sin ser recargado, el dispositivo podria enviar su ubicacion por 8.77 horas.</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+        <v>Luego de pasar 2 semana(s) sin ser recargado, el dispositivo podria enviar su ubicacion por 8.07 horas.</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
